--- a/doc/SA cert/Reviewer/jeditor_file_provider.xlsx
+++ b/doc/SA cert/Reviewer/jeditor_file_provider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OffCampus\LG전자\심사\2023_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikt/Documents/code/codefun/doc/SA cert/Reviewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA11D2B5-5165-4E9E-A050-1E3581DBFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCCEB5-1828-144E-9A93-C9EF702CBA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>평가항목</t>
   </si>
@@ -65,22 +64,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대응 comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반영Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>심사위원 최종피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 질문/ 피드백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>후보자 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 산출물 보완</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심사위원 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A-1. 프로젝트역량-요구사항관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,19 +188,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대응 방법(선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 확인완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피드백 종류(선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심사위원 최종피드백(선택)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +283,64 @@
     <t xml:space="preserve">Overall, your work as a SW architect seems to be very good, even if you are focusing too much on low-level details. The materials presented in documentation is well-focused and hard to find flaws. But, it is too long and contains too much nitty-gritty details. You are undoubtly an expert in your domain. But, I am not. As a SW architect, you should deliver your ideas on par with the eyes of audiences like me. Almost all contents are described as detailed as possible, which definitely not always considered good. Try to convey your idea at a reasonably abstract level. For example, in section "4.3 Use Case", what's the point of presenting every cases? It is enough to show two different cases: one from NAD manager to NAD proxy, another from NAD proxy to NAD manager. Always try to present essentials aspects, not irrelevant details.
 You don't need to reflect above comments on your next revision :-) </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대응 방법(선택)</t>
+  </si>
+  <si>
+    <t>대응 comment</t>
+  </si>
+  <si>
+    <t>후보자 작성</t>
+  </si>
+  <si>
+    <t>심사위원 작성</t>
+  </si>
+  <si>
+    <t>심사위원 최종피드백(선택)</t>
+  </si>
+  <si>
+    <t>추가 질문/ 피드백</t>
+  </si>
+  <si>
+    <t>반영Page</t>
+  </si>
+  <si>
+    <t>Thank you very much for your detailed review. I rewrite the document to present contents at a more abstract level. I rename project title as "Effective inter-communication between two SOC in a vehicle system". I also change name of NAD Proxy to NAD Relay (Because it main role is to relay message from NAD Manager to other components on NAD SoC). Your comments are very valuable for me. In below parts, I will answer your questions based on new version of the document (version 1.6).</t>
+  </si>
+  <si>
+    <t>I updated it more specifically on Scenario for QA03.
+ Validation part 10.2 verifies this QA result.</t>
+  </si>
+  <si>
+    <t>Those components are also new implementation for ICON.
+NAD SoC have many components based on Tiger framework, which shares implementation with differrent Telematic projects. ICON is one of Telematic projects. Therefore, source code of a component is resuable between differrent Telematics projects with minor change. If there is no existing component can be reused, a new implementation is needed. I rewrite System context diagram in new version.</t>
+  </si>
+  <si>
+    <t>It is located in Peripheral Control Part. I moved this part
+ to Appendix at part 12.4 on new version.</t>
+  </si>
+  <si>
+    <t>NAD Manager has Business Logic part, meanwhile NAD 
+Relay(Proxy) doesn't has. The reason is NAD Manager has to communicate with other services on BAM Soc to process request first and then send request to 
+NAD Relay. The role of NAD Relay is only to relay message to other services on NAD SoC without involving to handle business logic complexity. Therefore, on NAD Relay, message from an IPC type (SomeIP) goto Request Manager before relaying another IPC type (Binder) to reach services on NAD SoC (on NAD SoC, Binder is only IPC type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) I changed as your suggestion. Now there are three list
+ of worker threads: active list (worker threads are busy to 
+handling a task), sleep list (worker threads are on sleeping 
+state, they are free/ready to take a job), elapsed list (worker threads that just done a task/job)
+2) I changed terms "dispatcher" to "thread" on new version. 
+3) I only doing experiments test for Dynamic Task Executor (dynamic thread pool) on Validation part 10.4 (measuring number of worker threads running). Unfortunately, I haven't done experiments for leader-followers.
+In Dynamic Task Executor, main thread is always running, it has same lifetime with NAD Manager (or NAD Relay) service. The main thread only be destroyed when NAD Manager (or NAD Relay) terminates. Meanwhile, worker thread can be destroyed if there is no job in task queue. The reason of detroying worker thread is to release resource such as memory when there is no demand for worker thread. However, for main thread, I want to keep it running to avoid cost of re-creating too many threads on system. </t>
+  </si>
+  <si>
+    <t>Using coroutines can be a solution. For this project, I 
+would like to propose a solution for handling asynchronous call. The continuation is run on context of a worker thread on Dynamic Task Executor. This solution (Promise and Dynamic Task Executor) is written as shared libary and can be applied to differrent Telematics project.
+Thank you for your suggestion on configuring context to execute continuation, I will apply it.</t>
+  </si>
+  <si>
+    <t>I will fix this error.</t>
   </si>
 </sst>
 </file>
@@ -322,14 +351,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -338,7 +367,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -487,7 +516,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -770,24 +799,24 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.69921875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="44.8984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.19921875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="11" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -796,28 +825,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -825,27 +854,27 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="12" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>2</v>
@@ -854,215 +883,231 @@
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="184.8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="208">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="39.6">
+    <row r="8" spans="1:11" ht="48">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="39.6">
+    <row r="9" spans="1:11" ht="160">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="32">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="39.6">
+    <row r="11" spans="1:11" ht="176">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="277.2">
+    <row r="12" spans="1:11" ht="409.6">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2">
+    <row r="13" spans="1:11" ht="160">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="39.6">
+    <row r="14" spans="1:11" ht="48">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1889,35 +1934,35 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1925,82 +1970,82 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
